--- a/lotr_tale_years/tale_years.xlsx
+++ b/lotr_tale_years/tale_years.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\-=Cloud=-\Sync\git\git_johnfial_johnfial\johnfial.github.io\lotr_tale_years\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1B4921-06E2-4B8E-A8C2-8D1565C0C185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509AF978-4727-4847-AAE7-553FFD5B659E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5700" yWindow="2265" windowWidth="21600" windowHeight="13185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1260" yWindow="2115" windowWidth="21600" windowHeight="13185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="107">
   <si>
     <t>Date</t>
   </si>
@@ -328,6 +337,43 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>‘Who are you, Master?’ [Frodo] asked. 
+‘Eh, what?’ said Tom sitting up, and his eyes glinting in the gloom. ‘Don’t you know my name yet? That’s the only answer. Tell me, who are you, alone, yourself and nameless? But you are young and I am old.'</t>
+  </si>
+  <si>
+    <t>All the same the hobbits wished he was coming with them. They felt that he would know how to deal with Black Riders, if anyone did. They would soon now be going forward into lands wholly strange to them, and beyond all but the most vague and distant legends of the Shire, and in the gathering twilight they longed for home. A deep loneliness and sense of loss was on them. They stood silent, reluctant to make the final parting, and only slowly became aware that Tom was wishing them farewell, and telling them to have good heart and to ride on till dark without halting.</t>
+  </si>
+  <si>
+    <t>*24 Sept 3018 (T.A.) -- ‘I thank you indeed, Gildor Inglorion,’ said Frodo bowing. ‘Elen síla lúmenn’ omentielvo, a star shines on the hour of our meeting,’ he added in the High-elven speech.</t>
+  </si>
+  <si>
+    <t>26 Sept 3018 (TA) ...Frodo could not help asking one more question: the one he most desired to have answered. ‘Tell us, Master,’ he said, ‘about the Willow-man. What is he? I have never heard of him before.’ 
+‘No, don’t!’ said Merry and Pippin together, sitting suddenly upright.
+‘Not now! Not until the morning!’ 
+‘That is right!’ said the old man. ‘Now is the time for resting. Some things are ill to hear when the world’s in shadow. Sleep till the morning-light, rest on the pillow! Heed no nightly noise! Fear no grey willow!’ ...
+Their mattresses and pillows were soft as down, and the blankets were of white wool. They had hardly laid themselves on the deep beds and drawn the light covers over them before they were asleep.</t>
+  </si>
+  <si>
+    <t>25 Sept 3018 (TA) -- A bath song: 
+Sing hey! for the bath at close of day 
+that washes the weary mud away! 
+A loon is he that will not sing: 
+O! Water Hot is a noble thing! 
+. . . 
+O! Water cold we may pour at need 
+down a thirsty throat and be glad indeed; ...
+...but better is Beer, if drink we lack, 
+and Water Hot poured down the back. 
+O! Water is fair that leaps on high 
+in a fountain white beneath the sky; 
+but never did fountain sound so sweet 
+as splashing Hot Water with my feet!</t>
+  </si>
+  <si>
+    <t>23 September 3018 (Third Age) -- "A fox passing through the wood on business of his own stopped several minutes and sniffed. ‘Hobbits!’ he thought. ‘Well, what next? I have heard of strange doings in this land, but I have seldom heard of a hobbit sleeping...
+...out of doors under a tree. Three of them! There’s something mighty queer behind this.’ He was quite right, but he never found out any more about it.</t>
   </si>
 </sst>
 </file>
@@ -335,7 +381,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-809]d\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-809]d\ mmmm\ yyyy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -375,12 +421,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -663,23 +712,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="10" width="12.7109375" customWidth="1"/>
+    <col min="6" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="23" customWidth="1"/>
+    <col min="9" max="10" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -705,7 +756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -722,7 +773,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>408798</v>
       </c>
@@ -736,7 +787,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>408972</v>
       </c>
@@ -749,23 +800,38 @@
       <c r="E4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>408973</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>408974</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>408975</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>408976</v>
       </c>
@@ -778,8 +844,11 @@
       <c r="E8" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H8" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>408977</v>
       </c>
@@ -792,8 +861,11 @@
       <c r="E9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>408978</v>
       </c>
@@ -807,7 +879,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>408979</v>
       </c>
@@ -820,8 +892,11 @@
       <c r="E11" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>408980</v>
       </c>
@@ -835,7 +910,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>408986</v>
       </c>
@@ -849,7 +924,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>408993</v>
       </c>
@@ -863,7 +938,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>408998</v>
       </c>
@@ -877,7 +952,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>409000</v>
       </c>
@@ -891,7 +966,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>409004</v>
       </c>
@@ -905,7 +980,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>409005</v>
       </c>
@@ -919,12 +994,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E28" s="2" t="s">
         <v>80</v>
       </c>
@@ -932,7 +1007,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
         <v>10</v>
       </c>
@@ -940,7 +1015,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>11</v>
       </c>
@@ -948,7 +1023,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
         <v>12</v>
       </c>
@@ -956,7 +1031,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
         <v>13</v>
       </c>
@@ -964,7 +1039,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
         <v>14</v>
       </c>
@@ -972,7 +1047,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
         <v>15</v>
       </c>
@@ -980,7 +1055,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
         <v>16</v>
       </c>
@@ -988,7 +1063,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
         <v>17</v>
       </c>
@@ -996,7 +1071,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
         <v>18</v>
       </c>
@@ -1004,7 +1079,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
         <v>19</v>
       </c>
@@ -1012,7 +1087,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
         <v>20</v>
       </c>
@@ -1020,22 +1095,22 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E47" t="s">
         <v>35</v>
       </c>
@@ -1043,7 +1118,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E49" t="s">
         <v>36</v>
       </c>
@@ -1051,7 +1126,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E50" t="s">
         <v>37</v>
       </c>
@@ -1059,7 +1134,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E51" t="s">
         <v>38</v>
       </c>
@@ -1067,7 +1142,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E52" t="s">
         <v>39</v>
       </c>
@@ -1075,7 +1150,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E53" t="s">
         <v>40</v>
       </c>
@@ -1083,7 +1158,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E54" t="s">
         <v>41</v>
       </c>
@@ -1091,7 +1166,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E55" t="s">
         <v>42</v>
       </c>
@@ -1099,7 +1174,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E56" t="s">
         <v>43</v>
       </c>
@@ -1107,7 +1182,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E57" t="s">
         <v>44</v>
       </c>
@@ -1115,7 +1190,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E58" t="s">
         <v>45</v>
       </c>
@@ -1123,17 +1198,17 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E59" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="62" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E62" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E64" t="s">
         <v>59</v>
       </c>
@@ -1141,7 +1216,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E66" t="s">
         <v>60</v>
       </c>
@@ -1149,7 +1224,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E67" t="s">
         <v>61</v>
       </c>
@@ -1157,7 +1232,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="68" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E68" t="s">
         <v>62</v>
       </c>
@@ -1165,7 +1240,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="69" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E69" t="s">
         <v>63</v>
       </c>
@@ -1173,7 +1248,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="70" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E70" t="s">
         <v>64</v>
       </c>
@@ -1181,7 +1256,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="71" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E71" t="s">
         <v>65</v>
       </c>
@@ -1189,7 +1264,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="72" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E72" t="s">
         <v>66</v>
       </c>
@@ -1197,7 +1272,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="73" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E73" t="s">
         <v>67</v>
       </c>
@@ -1205,7 +1280,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="74" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E74" t="s">
         <v>68</v>
       </c>
@@ -1213,7 +1288,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="75" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E75" t="s">
         <v>69</v>
       </c>

--- a/lotr_tale_years/tale_years.xlsx
+++ b/lotr_tale_years/tale_years.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\-=Cloud=-\Sync\git\git_johnfial_johnfial\johnfial.github.io\lotr_tale_years\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509AF978-4727-4847-AAE7-553FFD5B659E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BACC0E1-C77C-498D-87D0-2CD6FE74F098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="2115" windowWidth="21600" windowHeight="13185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="13185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="151">
   <si>
     <t>Date</t>
   </si>
@@ -54,12 +54,6 @@
     <t>Event(s)</t>
   </si>
   <si>
-    <t>Bilbo's Birthday Party</t>
-  </si>
-  <si>
-    <t>Gandalf Talks to Frodo</t>
-  </si>
-  <si>
     <t>Chapter(s)</t>
   </si>
   <si>
@@ -282,12 +276,6 @@
     <t>:</t>
   </si>
   <si>
-    <t>Frodo Leaves the Shire, Bilbo's Birthday Party Anniversary</t>
-  </si>
-  <si>
-    <t>"The Old Forest. Frodo comes to Bombadil. "</t>
-  </si>
-  <si>
     <t>"Second night with Bombadil."</t>
   </si>
   <si>
@@ -309,9 +297,6 @@
     <t>"Council of Elrond."</t>
   </si>
   <si>
-    <t>"Crickhollow and the Inn at Bree are raided in the early hours."</t>
-  </si>
-  <si>
     <t>"The camp under Weathertop attacked at night. Frodo wounded."</t>
   </si>
   <si>
@@ -334,9 +319,6 @@
   </si>
   <si>
     <t>Estimate</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>‘Who are you, Master?’ [Frodo] asked. 
@@ -375,6 +357,295 @@
     <t>23 September 3018 (Third Age) -- "A fox passing through the wood on business of his own stopped several minutes and sniffed. ‘Hobbits!’ he thought. ‘Well, what next? I have heard of strange doings in this land, but I have seldom heard of a hobbit sleeping...
 ...out of doors under a tree. Three of them! There’s something mighty queer behind this.’ He was quite right, but he never found out any more about it.</t>
   </si>
+  <si>
+    <t xml:space="preserve">Pippin subsided; but Sam was not daunted, and he still eyed Strider dubiously. ‘How do we know you are the Strider that Gandalf speaks about?’ he demanded. ‘You never mentioned Gandalf, till this letter came out. You might be a play-acting spy, for all I can see, trying to get us to go with you. You might have done in the real Strider and took his clothes. What have you to say to that?’ ‘That you are a stout fellow,’ answered Strider; ‘but I am afraid my only answer to you, Sam Gamgee, is this. If I had killed the real Strider, I could kill you. And I should have killed you already without so much talk. If I was after the Ring, I could have it – NOW!’ He stood up, and seemed suddenly to grow taller. In his eyes gleamed a light, keen and commanding. Throwing back his cloak, he laid his hand on the hilt of a sword that had hung concealed by his side. They did not dare to move. Sam sat wide-mouthed staring at him dumbly.
+Tolkien, J.R.R.. The Lord of the Rings: One Volume (p. 171). HMH Books. Kindle Edition. </t>
+  </si>
+  <si>
+    <t>Posted Quote 2:</t>
+  </si>
+  <si>
+    <t>The next day they began to steer a steady course eastwards; and still all was quiet and peaceful.</t>
+  </si>
+  <si>
+    <t>Frodo lay down again, but for a long while he could still see the white flashes, and against them the tall dark figure of Strider, standing silent and watchful. At last he passed into uneasy sleep.</t>
+  </si>
+  <si>
+    <t>‘I am being eaten alive!’ cried Pippin. ‘Midgewater! There are more midges than water!’ ‘What do they live on when they can’t get hobbit?’ asked Sam, scratching his neck. They spent a miserable day in this lonely and unpleasant country. Their camping-place was damp, cold, and uncomfortable; and the biting insects would not let them sleep. There were also abominable creatures haunting the reeds and tussocks that from the sound of them were evil relatives of the cricket. There were thousands of them, and they squeaked all round, neek-breek, breek-neek, unceasingly all the night, until the hobbits were nearly frantic.</t>
+  </si>
+  <si>
+    <t>leave bree</t>
+  </si>
+  <si>
+    <t>"Crickhollow and the Inn at Bree are raided in the early hours." Leave Bree.</t>
+  </si>
+  <si>
+    <t>2nd day from Bree, easy</t>
+  </si>
+  <si>
+    <t>3rd day from Bree, midges, flies, creeking insects</t>
+  </si>
+  <si>
+    <t>4th day from Bree, midges</t>
+  </si>
+  <si>
+    <t>5th day from Bree, Weathertop in sight</t>
+  </si>
+  <si>
+    <t>30 Sept 3018 -- Sam turned quickly. ‘And you, Ferny,’ he said, ‘put your ugly face out of sight, or it will get hurt.’ With a sudden flick, quick as lightning, an apple left his hand and hit Bill square on the nose. He ducked too late, and curses came from behind the hedge. ... // Whether because of Strider’s skill or for some other reason, they saw no sign and heard no sound of any other living thing all that day: neither two-footed, except birds; nor four-footed, except one fox and a few squirrels.</t>
+  </si>
+  <si>
+    <t>The hobbits looked anxiously at the distant hills. Sam looked up into the pale sky, fearing to see hawks or eagles hovering over them with bright unfriendly eyes. ‘You do make me feel uncomfortable and lonesome, Strider!’ he said.
+. . . That night they set a watch, and Strider, it seemed, did not sleep at all. The moon was waxing, and in the early night-hours a cold grey light lay on the land.</t>
+  </si>
+  <si>
+    <t>6th day from Bree, ____</t>
+  </si>
+  <si>
+    <t>A Short Cut to Mushrooms, A Conspiracy Unmasked</t>
+  </si>
+  <si>
+    <t>Frodo Leaves the Shire, sleeps unguarded in the Shire</t>
+  </si>
+  <si>
+    <t>Close calls with the Black Riders; Sleep with the Finrodian Elves.</t>
+  </si>
+  <si>
+    <t>Leave the Elves; dinner with Farmer Maggot, cross the Brandywine, sleep in new Buckland home.</t>
+  </si>
+  <si>
+    <t>"The Old Forest. Frodo comes to Bombadil. " Leave Buckland, nearly killed by Barrow-wights.</t>
+  </si>
+  <si>
+    <t>Gandalf Talks to Frodo "early April"</t>
+  </si>
+  <si>
+    <t>Bilbo's 111th Birthday Party, Frodo's 33rd</t>
+  </si>
+  <si>
+    <t>Frodo's 50th Birthday Party, Bilbo's Party Anniversary</t>
+  </si>
+  <si>
+    <t>www.barrowdowns.com/chronology.php</t>
+  </si>
+  <si>
+    <t>Before the first day’s march was over Frodo’s pain began to grow again, but he did not speak of it for a long time.</t>
+  </si>
+  <si>
+    <t>‘Ride on! Ride on!’ cried Glorfindel, and then loud and clear he called to the horse in the elf-tongue: noro lim, noro lim, Asfaloth!</t>
+  </si>
+  <si>
+    <t>Frodo was left to himself for a while, for Sam had fallen asleep. He was alone and felt rather forlorn, although all about him the folk of Rivendell were gathered. But those near him were silent, intent upon the music of the voices and the instruments, and they gave no heed to anything else. Frodo began to listen. /// At first the beauty of the melodies and of the interwoven words in elven-tongues, even though he understood them little, held him in a spell, as soon as he began to attend to them. Almost it seemed that the words took shape, and visions of far lands and bright things that he had never yet imagined opened out before him; and the firelit hall became like a golden mist above seas of foam that sighed upon the margins of the world. Then the enchantment became more and more dreamlike, until he felt that an endless river of swelling gold and silver was flowing over him, too multitudinous for its pattern to be comprehended; it became part of the throbbing air about him, and it drenched and drowned him. Swiftly he sank under its shining weight into a deep realm of sleep. /// There he wandered long in a dream of music that turned into running water, and then suddenly into a voice. It seemed to be the voice of Bilbo chanting verses. Faint at first and then clearer ran the words.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Four days passed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, without the ground or the scene changing much, except that behind them Weathertop slowly sank, and before them the distant mountains loomed a little nearer. Yet since that far cry they had seen and heard no sign that the enemy had marked their flight or followed them. They dreaded the dark hours, and kept watch in pairs by night, expecting at any time to see black shapes stalking in the grey night, dimly lit by the cloud-veiled moon; but they saw nothing, and heard no sound but the sigh of withered leaves and grass. Not once did they feel the sense of present evil that had assailed them before the attack in the dell. It seemed too much to hope that the Riders had already lost their trail again. Perhaps they were waiting to make some ambush in a narrow place?
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">By night they had reached the feet of the westward slopes, and there they camped. It was the night of the fifth of October, and they were six days out from Bree.
+</t>
+  </si>
+  <si>
+    <t>6/7 Oct: Frodo dozed, though the pain of his wound was slowly growing, and a deadly chill was spreading from his shoulder to his arm and side. His friends watched over him, warming him, and bathing his wound. The night passed slowly and wearily. Dawn was growing in the sky, and the dell was filling with grey light, when Strider at last returned.</t>
+  </si>
+  <si>
+    <t>Next morning they set out again soon after sunrise. There was a frost in the air, and the sky was a pale clear blue. The hobbits felt refreshed, as if they had had a night of unbroken sleep. Already they were getting used to much walking on short commons – shorter at any rate than what in the Shire they would have thought barely enough to keep them on their legs. Pippin declared that Frodo was looking twice the hobbit that he had been.
+‘Very odd,’ said Frodo, tightening his belt, ‘considering that there is actually a good deal less of me. I hope the thinning process will not go on indefinitely, or I shall become a wraith.’
+‘Do not speak of such things!’ said Strider quickly, and with surprising earnestness.</t>
+  </si>
+  <si>
+    <t>AM
+‘You are not alone. Let us take this wood that is set ready for the fire as a sign. There is little shelter or defence here, but fire shall serve for both. Sauron can put fire to his evil uses, as he can all things, but these Riders do not love it, and fear those who wield it. Fire is our friend in the wilderness.’ 
+‘Maybe,’ muttered Sam. ‘It is also as good a way of saying “here we are” as I can think of, bar shouting.’
+PM:
+Immediately, though everything else remained as before, dim and dark, the shapes became terribly clear. He was able to see beneath their black wrappings. There were five tall figures: two standing on the lip of the dell, three advancing. In their white faces burned keen and merciless eyes; under their mantles were long grey robes; upon their grey hairs were helms of silver; in their haggard hands were swords of steel. Their eyes fell on him and pierced him, as they rushed towards him. Desperate, he drew his own sword, and it seemed to him that it flickered red, as if it was a firebrand. Two of the figures halted.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Strider now turned their course again north-eastwards, and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">on the sixth day </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>they reached the top of a long slow-climbing slope, and saw far ahead a huddle of wooded hills.</t>
+    </r>
+  </si>
+  <si>
+    <t>Presumed</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Next day, early in the morning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, they came down again to the borders of the Road.</t>
+    </r>
+  </si>
+  <si>
+    <t>‘What is that other river we can see far away there?’ asked Merry. ‘That is Loudwater, the Bruinen of Rivendell,’ answered Strider. ‘The Road runs along the edge of the hills for many miles from the Bridge to the Ford of Bruinen. But I have not yet thought how we shall cross that water. One river at a time! We shall be fortunate indeed if we do not find the Last Bridge held against us.’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frodo was restless. The cold and wet had made his wound more painful than ever, and the ache and sense of deadly chill took away all sleep. He lay tossing and turning and listening fearfully to the stealthy night-noises: wind in chinks of rock, water dripping, a crack, the sudden rattling fall of a loosened stone. He felt that black shapes were advancing to smother him; but when he sat up he saw nothing but the back of Strider sitting hunched up, smoking his pipe, and watching. </t>
+  </si>
+  <si>
+    <t>‘Where did you learn such tales, if all the land is empty and forgetful?’ asked Peregrin. ‘The birds and beasts do not tell tales of that sort.’ ‘The heirs of Elendil do not forget all things past,’ said Strider; ‘and many more things than I can tell are remembered in Rivendell.’ ‘Have you often been to Rivendell?’ said Frodo. ‘I have,’ said Strider. ‘I dwelt there once, and still I return when I may. There my heart is; but it is not my fate to sit in peace, even in the fair house of Elrond.’</t>
+  </si>
+  <si>
+    <t>They had been two days in this country when the weather turned wet. The wind began to blow steadily out of the West and pour the water of the distant seas on the dark heads of the hills in fine drenching rain. By nightfall they were all soaked, and their camp was cheerless, for they could not get any fire to burn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They had been two days in this country when the weather turned wet. The wind began to blow steadily out of the West and pour the water of the distant seas on the dark heads of the hills in fine drenching rain. By nightfall they were all soaked, and their camp was cheerless, for they could not get any fire to burn. </t>
+  </si>
+  <si>
+    <t>The next day the hills rose still higher and steeper before them, …</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">In the morning </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>he woke to find that the rain had stopped.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The morning </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dawned bright and fair;…</t>
+    </r>
+  </si>
+  <si>
+    <t>‘We cannot go any further,’ said Merry to Strider. ‘I am afraid this has been too much for Frodo. I am dreadfully anxious about him. What are we to do? Do you think they will be able to cure him in Rivendell, if we ever get there?’</t>
+  </si>
+  <si>
+    <t>‘You are forgetting not only your family history, but all you ever knew about trolls,’ said Strider. ‘It is broad daylight with a bright sun, and yet you come back trying to scare me with a tale of live trolls waiting for us in this glade! In any case you might have noticed that one of them has an old bird’s nest behind his ear. That would be a most unusual ornament for a live troll!’ // But you need not fear: my horse will not let any rider fall that I command him to bear. His pace is light and smooth; and if danger presses too near, he will bear you away with a speed that even the black steeds of the enemy cannot rival.’ ‘No, he will not!’ said Frodo. ‘I shall not ride him, if I am to be carried off to Rivendell or anywhere else, leaving my friends behind in danger.’ Glorfindel smiled. ‘I doubt very much,’ he said, ‘if your friends would be in danger if you were not with them! The pursuit would follow you and leave us in peace, I think. It is you, Frodo, and that which you bear that brings us all in peril.’</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">they set out again </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>early next morning.</t>
+    </r>
+  </si>
+  <si>
+    <t>8 Oct 3018 -- Four days passed, without the ground or the scene changing much, except that behind them Weathertop slowly sank, and before them the distant mountains loomed a little nearer. …</t>
+  </si>
+  <si>
+    <t>9 Oct 3018 -- [Four days passed. . . ] ... Yet since that far cry they had seen and heard no sign that the enemy had marked their flight or followed them. They dreaded the dark hours, and kept watch in pairs by night, expecting at any time to see black shapes stalking in the grey night, dimly lit by the cloud-veiled moon; but they saw nothing, and heard no sound but the sigh of withered leaves and grass.  ...</t>
+  </si>
+  <si>
+    <t>10 Oct 3018 -- [Four days. . . ] Not once did they feel the sense of present evil that had assailed them before the attack in the dell. It seemed too much to hope that the Riders had already lost their trail again. Perhaps they were waiting to make some ambush in a narrow place?</t>
+  </si>
+  <si>
+    <t>11 Oct 3018 -- At the end of the fifth day the ground began once more to rise slowly</t>
+  </si>
+  <si>
+    <r>
+      <t>At the end</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of the fifth day</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -383,7 +654,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-809]d\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -399,13 +670,51 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -417,11 +726,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -431,8 +742,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -712,25 +1030,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:K281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.85546875" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="3" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="23" customWidth="1"/>
-    <col min="9" max="10" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="54.42578125" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -738,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -755,549 +1076,2011 @@
       <c r="H1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
-        <v>407877</v>
+      <c r="B2" s="5">
+        <v>402398</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <v>408442</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>408607</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>408608</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>408609</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>408610</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>408611</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>408612</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>408613</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>408614</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" t="s">
+        <v>96</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>408615</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
+        <v>106</v>
+      </c>
+      <c r="H12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>408616</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>408617</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>408618</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <v>408619</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>408620</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <v>408621</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <v>408622</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" t="s">
+        <v>129</v>
+      </c>
+      <c r="H19" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
+        <v>408623</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <v>408624</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <v>408625</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <v>408626</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="1">
+        <v>408627</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" t="s">
+        <v>132</v>
+      </c>
+      <c r="H24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <v>408628</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H25" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
+        <v>408629</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="H26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
+        <v>408630</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="H27" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
+        <v>408631</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G28" t="s">
+        <v>141</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="1">
+        <v>408632</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G29" t="s">
+        <v>142</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="1">
+        <v>408633</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="1">
+        <v>408634</v>
+      </c>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="1">
+        <v>408635</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" t="s">
+        <v>145</v>
+      </c>
+      <c r="I32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="1">
+        <v>408636</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="1">
+        <v>408637</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="1">
+        <v>408638</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="1">
+        <v>408639</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="1">
+        <v>408640</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" t="s">
+        <v>86</v>
+      </c>
+      <c r="E37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="1">
+        <v>408641</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="1">
+        <v>408642</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="1">
+        <v>408643</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="1">
+        <v>408644</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="1">
+        <v>408645</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="1">
+        <v>408646</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="1">
+        <v>408647</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="1">
+        <v>408648</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="1">
+        <v>408649</v>
+      </c>
+      <c r="E46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="1">
+        <v>408650</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F47" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="1">
+        <v>408651</v>
+      </c>
+      <c r="E48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="1">
+        <v>408652</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="1">
+        <v>408653</v>
+      </c>
+      <c r="E50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="1">
+        <v>408654</v>
+      </c>
+      <c r="E51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="1">
+        <v>408655</v>
+      </c>
+      <c r="E52" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="1">
+      <c r="F52" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="1">
+        <v>408656</v>
+      </c>
+      <c r="E53" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="1">
+        <v>408657</v>
+      </c>
+      <c r="E54" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="1">
+        <v>408658</v>
+      </c>
+      <c r="E55" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="1">
+        <v>408659</v>
+      </c>
+      <c r="E56" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="1">
+        <v>408660</v>
+      </c>
+      <c r="E57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="1">
+        <v>408661</v>
+      </c>
+      <c r="E58" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="1">
+        <v>408662</v>
+      </c>
+      <c r="E59" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="1">
+        <v>408663</v>
+      </c>
+      <c r="E60" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="1">
+        <v>408664</v>
+      </c>
+      <c r="E61" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="1">
+        <v>408665</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="1">
+        <v>408666</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="1">
+        <v>408667</v>
+      </c>
+      <c r="E64" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="1">
+        <v>408668</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="1">
+        <v>408669</v>
+      </c>
+      <c r="E66" t="s">
+        <v>33</v>
+      </c>
+      <c r="F66" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="1">
+        <v>408670</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="1">
+        <v>408671</v>
+      </c>
+      <c r="E68" t="s">
+        <v>34</v>
+      </c>
+      <c r="F68" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="1">
+        <v>408672</v>
+      </c>
+      <c r="E69" t="s">
+        <v>35</v>
+      </c>
+      <c r="F69" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="1">
+        <v>408673</v>
+      </c>
+      <c r="E70" t="s">
+        <v>36</v>
+      </c>
+      <c r="F70" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="1">
+        <v>408674</v>
+      </c>
+      <c r="E71" t="s">
+        <v>37</v>
+      </c>
+      <c r="F71" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="1">
+        <v>408675</v>
+      </c>
+      <c r="E72" t="s">
+        <v>38</v>
+      </c>
+      <c r="F72" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="1">
+        <v>408676</v>
+      </c>
+      <c r="E73" t="s">
+        <v>39</v>
+      </c>
+      <c r="F73" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="1">
+        <v>408677</v>
+      </c>
+      <c r="E74" t="s">
+        <v>40</v>
+      </c>
+      <c r="F74" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="1">
+        <v>408678</v>
+      </c>
+      <c r="E75" t="s">
+        <v>41</v>
+      </c>
+      <c r="F75" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="1">
+        <v>408679</v>
+      </c>
+      <c r="E76" t="s">
+        <v>42</v>
+      </c>
+      <c r="F76" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="1">
+        <v>408680</v>
+      </c>
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="1">
+        <v>408681</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="1">
+        <v>408682</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="1">
+        <v>408683</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="1">
+        <v>408684</v>
+      </c>
+      <c r="E81" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="1">
+        <v>408685</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="1">
+        <v>408686</v>
+      </c>
+      <c r="E83" t="s">
+        <v>57</v>
+      </c>
+      <c r="F83" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="1">
+        <v>408687</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="1">
+        <v>408688</v>
+      </c>
+      <c r="E85" t="s">
+        <v>58</v>
+      </c>
+      <c r="F85" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="1">
+        <v>408689</v>
+      </c>
+      <c r="E86" t="s">
+        <v>59</v>
+      </c>
+      <c r="F86" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="1">
+        <v>408690</v>
+      </c>
+      <c r="E87" t="s">
+        <v>60</v>
+      </c>
+      <c r="F87" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="1">
+        <v>408691</v>
+      </c>
+      <c r="E88" t="s">
+        <v>61</v>
+      </c>
+      <c r="F88" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="1">
+        <v>408692</v>
+      </c>
+      <c r="E89" t="s">
+        <v>62</v>
+      </c>
+      <c r="F89" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="1">
+        <v>408693</v>
+      </c>
+      <c r="E90" t="s">
+        <v>63</v>
+      </c>
+      <c r="F90" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="1">
+        <v>408694</v>
+      </c>
+      <c r="E91" t="s">
+        <v>64</v>
+      </c>
+      <c r="F91" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="1">
+        <v>408695</v>
+      </c>
+      <c r="E92" t="s">
+        <v>65</v>
+      </c>
+      <c r="F92" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="1">
+        <v>408696</v>
+      </c>
+      <c r="E93" t="s">
+        <v>66</v>
+      </c>
+      <c r="F93" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="1">
+        <v>408697</v>
+      </c>
+      <c r="E94" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="1">
+        <v>408698</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="1">
+        <v>408699</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="1">
+        <v>408700</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="1">
+        <v>408701</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="1">
+        <v>408702</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="1">
+        <v>408703</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="1">
+        <v>408704</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="1">
+        <v>408705</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="1">
+        <v>408706</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="1">
+        <v>408707</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="1">
+        <v>408708</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="1">
+        <v>408709</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="1">
+        <v>408710</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="1">
+        <v>408711</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="1">
+        <v>408712</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="1">
+        <v>408713</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="1">
+        <v>408714</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="1">
+        <v>408715</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="1">
+        <v>408716</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="1">
+        <v>408717</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="1">
+        <v>408718</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="1">
+        <v>408719</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="1">
+        <v>408720</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="1">
+        <v>408721</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="1">
+        <v>408722</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="1">
+        <v>408723</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="1">
+        <v>408724</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="1">
+        <v>408725</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="1">
+        <v>408726</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B124" s="1">
+        <v>408727</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B125" s="1">
+        <v>408728</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B126" s="1">
+        <v>408729</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B127" s="1">
+        <v>408730</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="1">
+        <v>408731</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="1">
+        <v>408732</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B130" s="1">
+        <v>408733</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="1">
+        <v>408734</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B132" s="1">
+        <v>408735</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B133" s="1">
+        <v>408736</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B134" s="1">
+        <v>408737</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B135" s="1">
+        <v>408738</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="1">
+        <v>408739</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="1">
+        <v>408740</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="1">
+        <v>408741</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="1">
+        <v>408742</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="1">
+        <v>408743</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="1">
+        <v>408744</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="1">
+        <v>408745</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B143" s="1">
+        <v>408746</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="1">
+        <v>408747</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B145" s="1">
+        <v>408748</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B146" s="1">
+        <v>408749</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B147" s="1">
+        <v>408750</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B148" s="1">
+        <v>408751</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B149" s="1">
+        <v>408752</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B150" s="1">
+        <v>408753</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B151" s="1">
+        <v>408754</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B152" s="1">
+        <v>408755</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B153" s="1">
+        <v>408756</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B154" s="1">
+        <v>408757</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B155" s="1">
+        <v>408758</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B156" s="1">
+        <v>408759</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B157" s="1">
+        <v>408760</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B158" s="1">
+        <v>408761</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B159" s="1">
+        <v>408762</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B160" s="1">
+        <v>408763</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B161" s="1">
+        <v>408764</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B162" s="1">
+        <v>408765</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B163" s="1">
+        <v>408766</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B164" s="1">
+        <v>408767</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B165" s="1">
+        <v>408768</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B166" s="1">
+        <v>408769</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B167" s="1">
+        <v>408770</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B168" s="1">
+        <v>408771</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B169" s="1">
+        <v>408772</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B170" s="1">
+        <v>408773</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B171" s="1">
+        <v>408774</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B172" s="1">
+        <v>408775</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B173" s="1">
+        <v>408776</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B174" s="1">
+        <v>408777</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B175" s="1">
+        <v>408778</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B176" s="1">
+        <v>408779</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B177" s="1">
+        <v>408780</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B178" s="1">
+        <v>408781</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B179" s="1">
+        <v>408782</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B180" s="1">
+        <v>408783</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B181" s="1">
+        <v>408784</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B182" s="1">
+        <v>408785</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B183" s="1">
+        <v>408786</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B184" s="1">
+        <v>408787</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B185" s="1">
+        <v>408788</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B186" s="1">
+        <v>408789</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B187" s="1">
+        <v>408790</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B188" s="1">
+        <v>408791</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B189" s="1">
+        <v>408792</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B190" s="1">
+        <v>408793</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B191" s="1">
+        <v>408794</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B192" s="1">
+        <v>408795</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B193" s="1">
+        <v>408796</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B194" s="1">
+        <v>408797</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B195" s="1">
         <v>408798</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
-        <v>408972</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
-        <v>408973</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="I5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
-        <v>408974</v>
-      </c>
-      <c r="H6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
-        <v>408975</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
-        <v>408976</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E8" t="s">
-        <v>88</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
-        <v>408977</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
-        <v>408978</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
-        <v>408979</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" t="s">
-        <v>89</v>
-      </c>
-      <c r="H11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="1">
-        <v>408980</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" t="s">
-        <v>91</v>
-      </c>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="1">
-        <v>408986</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13" t="s">
-        <v>92</v>
-      </c>
-      <c r="E13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="1">
-        <v>408993</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D14" t="s">
-        <v>93</v>
-      </c>
-      <c r="E14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="1">
-        <v>408998</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="1">
-        <v>409000</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D16" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="1">
-        <v>409004</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="1">
-        <v>409005</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D18" t="s">
-        <v>90</v>
-      </c>
-      <c r="E18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E28" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F28" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E29" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E32" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E34" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E35" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E36" t="s">
-        <v>16</v>
-      </c>
-      <c r="F36" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E37" t="s">
-        <v>17</v>
-      </c>
-      <c r="F37" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E38" t="s">
-        <v>18</v>
-      </c>
-      <c r="F38" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E39" t="s">
-        <v>19</v>
-      </c>
-      <c r="F39" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E40" t="s">
-        <v>20</v>
-      </c>
-      <c r="F40" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E41" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E42" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="45" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E45" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="47" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E47" t="s">
-        <v>35</v>
-      </c>
-      <c r="F47" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E49" t="s">
-        <v>36</v>
-      </c>
-      <c r="F49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E50" t="s">
-        <v>37</v>
-      </c>
-      <c r="F50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E51" t="s">
-        <v>38</v>
-      </c>
-      <c r="F51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E52" t="s">
-        <v>39</v>
-      </c>
-      <c r="F52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E53" t="s">
-        <v>40</v>
-      </c>
-      <c r="F53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E54" t="s">
-        <v>41</v>
-      </c>
-      <c r="F54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E55" t="s">
-        <v>42</v>
-      </c>
-      <c r="F55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E56" t="s">
-        <v>43</v>
-      </c>
-      <c r="F56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E57" t="s">
-        <v>44</v>
-      </c>
-      <c r="F57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E58" t="s">
-        <v>45</v>
-      </c>
-      <c r="F58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E59" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="62" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E62" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="64" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E64" t="s">
-        <v>59</v>
-      </c>
-      <c r="F64" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="66" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E66" t="s">
-        <v>60</v>
-      </c>
-      <c r="F66" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="67" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E67" t="s">
-        <v>61</v>
-      </c>
-      <c r="F67" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="68" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E68" t="s">
-        <v>62</v>
-      </c>
-      <c r="F68" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="69" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E69" t="s">
-        <v>63</v>
-      </c>
-      <c r="F69" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="70" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E70" t="s">
-        <v>64</v>
-      </c>
-      <c r="F70" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="71" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E71" t="s">
-        <v>65</v>
-      </c>
-      <c r="F71" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="72" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E72" t="s">
-        <v>66</v>
-      </c>
-      <c r="F72" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="73" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E73" t="s">
-        <v>67</v>
-      </c>
-      <c r="F73" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="74" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E74" t="s">
-        <v>68</v>
-      </c>
-      <c r="F74" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="75" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E75" t="s">
-        <v>69</v>
+    </row>
+    <row r="196" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B196" s="1">
+        <v>408799</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B197" s="1">
+        <v>408800</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B198" s="1">
+        <v>408801</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B199" s="1">
+        <v>408802</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B200" s="1">
+        <v>408803</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B201" s="1">
+        <v>408804</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B202" s="1">
+        <v>408805</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B203" s="1">
+        <v>408806</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B204" s="1">
+        <v>408807</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B205" s="1">
+        <v>408808</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B206" s="1">
+        <v>408809</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B207" s="1">
+        <v>408810</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B208" s="1">
+        <v>408811</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B209" s="1">
+        <v>408812</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B210" s="1">
+        <v>408813</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B211" s="1">
+        <v>408814</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B212" s="1">
+        <v>408815</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B213" s="1">
+        <v>408816</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B214" s="1">
+        <v>408817</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B215" s="1">
+        <v>408818</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B216" s="1">
+        <v>408819</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B217" s="1">
+        <v>408820</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B218" s="1">
+        <v>408821</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B219" s="1">
+        <v>408822</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B220" s="1">
+        <v>408823</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B221" s="1">
+        <v>408824</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B222" s="1">
+        <v>408825</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B223" s="1">
+        <v>408826</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B224" s="1">
+        <v>408827</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B225" s="1">
+        <v>408828</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B226" s="1">
+        <v>408829</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B227" s="1">
+        <v>408830</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B228" s="1">
+        <v>408831</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B229" s="1">
+        <v>408832</v>
+      </c>
+    </row>
+    <row r="230" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B230" s="1">
+        <v>408833</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B231" s="1">
+        <v>408834</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B232" s="1">
+        <v>408835</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B233" s="1">
+        <v>408836</v>
+      </c>
+    </row>
+    <row r="234" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B234" s="1">
+        <v>408837</v>
+      </c>
+    </row>
+    <row r="235" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B235" s="1">
+        <v>408838</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B236" s="1">
+        <v>408839</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B237" s="1">
+        <v>408840</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B238" s="1">
+        <v>408841</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B239" s="1">
+        <v>408842</v>
+      </c>
+    </row>
+    <row r="240" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B240" s="1">
+        <v>408843</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B241" s="1">
+        <v>408844</v>
+      </c>
+    </row>
+    <row r="242" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B242" s="1">
+        <v>408845</v>
+      </c>
+    </row>
+    <row r="243" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B243" s="1">
+        <v>408846</v>
+      </c>
+    </row>
+    <row r="244" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B244" s="1">
+        <v>408847</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B245" s="1">
+        <v>408848</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B246" s="1">
+        <v>408849</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B247" s="1">
+        <v>408850</v>
+      </c>
+    </row>
+    <row r="248" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B248" s="1">
+        <v>408851</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B249" s="1">
+        <v>408852</v>
+      </c>
+    </row>
+    <row r="250" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B250" s="1">
+        <v>408853</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B251" s="1">
+        <v>408854</v>
+      </c>
+    </row>
+    <row r="252" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B252" s="1">
+        <v>408855</v>
+      </c>
+    </row>
+    <row r="253" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B253" s="1">
+        <v>408856</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B254" s="1">
+        <v>408857</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B255" s="1">
+        <v>408858</v>
+      </c>
+    </row>
+    <row r="256" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B256" s="1">
+        <v>408859</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B257" s="1">
+        <v>408860</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B258" s="1">
+        <v>408861</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B259" s="1">
+        <v>408862</v>
+      </c>
+    </row>
+    <row r="260" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B260" s="1">
+        <v>408863</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B261" s="1">
+        <v>408864</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B262" s="1">
+        <v>408865</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B263" s="1">
+        <v>408866</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B264" s="1">
+        <v>408867</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B265" s="1">
+        <v>408868</v>
+      </c>
+    </row>
+    <row r="266" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B266" s="1">
+        <v>408869</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B267" s="1">
+        <v>408870</v>
+      </c>
+    </row>
+    <row r="268" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B268" s="1">
+        <v>408871</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B269" s="1">
+        <v>408872</v>
+      </c>
+    </row>
+    <row r="270" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B270" s="1">
+        <v>408873</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B271" s="1">
+        <v>408874</v>
+      </c>
+    </row>
+    <row r="272" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B272" s="1">
+        <v>408875</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B273" s="1">
+        <v>408876</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B274" s="1">
+        <v>408877</v>
+      </c>
+    </row>
+    <row r="275" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B275" s="1">
+        <v>408878</v>
+      </c>
+    </row>
+    <row r="276" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B276" s="1">
+        <v>408879</v>
+      </c>
+    </row>
+    <row r="277" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B277" s="1">
+        <v>408880</v>
+      </c>
+    </row>
+    <row r="278" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B278" s="1">
+        <v>408881</v>
+      </c>
+    </row>
+    <row r="279" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B279" s="1">
+        <v>408882</v>
+      </c>
+    </row>
+    <row r="280" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B280" s="1">
+        <v>408883</v>
+      </c>
+    </row>
+    <row r="281" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B281" s="1">
+        <v>408884</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E28" r:id="rId1" xr:uid="{10C59C7F-F0EE-4778-B884-2B7CD40EAD2F}"/>
+    <hyperlink ref="E47" r:id="rId1" xr:uid="{10C59C7F-F0EE-4778-B884-2B7CD40EAD2F}"/>
+    <hyperlink ref="K1" r:id="rId2" xr:uid="{A508D088-E915-4E49-82F7-E5BC640927E2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
--- a/lotr_tale_years/tale_years.xlsx
+++ b/lotr_tale_years/tale_years.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\-=Cloud=-\Sync\git\git_johnfial_johnfial\johnfial.github.io\lotr_tale_years\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BACC0E1-C77C-498D-87D0-2CD6FE74F098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93383483-801B-4CBD-ADEE-F279DEECF056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="13185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="157">
   <si>
     <t>Date</t>
   </si>
@@ -600,9 +600,6 @@
     <t>‘We cannot go any further,’ said Merry to Strider. ‘I am afraid this has been too much for Frodo. I am dreadfully anxious about him. What are we to do? Do you think they will be able to cure him in Rivendell, if we ever get there?’</t>
   </si>
   <si>
-    <t>‘You are forgetting not only your family history, but all you ever knew about trolls,’ said Strider. ‘It is broad daylight with a bright sun, and yet you come back trying to scare me with a tale of live trolls waiting for us in this glade! In any case you might have noticed that one of them has an old bird’s nest behind his ear. That would be a most unusual ornament for a live troll!’ // But you need not fear: my horse will not let any rider fall that I command him to bear. His pace is light and smooth; and if danger presses too near, he will bear you away with a speed that even the black steeds of the enemy cannot rival.’ ‘No, he will not!’ said Frodo. ‘I shall not ride him, if I am to be carried off to Rivendell or anywhere else, leaving my friends behind in danger.’ Glorfindel smiled. ‘I doubt very much,’ he said, ‘if your friends would be in danger if you were not with them! The pursuit would follow you and leave us in peace, I think. It is you, Frodo, and that which you bear that brings us all in peril.’</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">they set out again </t>
     </r>
@@ -645,6 +642,27 @@
       </rPr>
       <t xml:space="preserve"> of the fifth day</t>
     </r>
+  </si>
+  <si>
+    <t>The sun had now climbed far into the morning, and the clouds and mists of the night were gone.</t>
+  </si>
+  <si>
+    <t>‘By Elbereth and Lúthien the Fair,’ said Frodo with a last effort, lifting up his sword, ‘you shall have neither the Ring nor me!’ Then the leader, who was now half across the Ford, stood up menacing in his stirrups, and raised up his hand. Frodo was stricken dumb. He felt his tongue cleave to his mouth, and his heart labouring. His sword broke and fell out of his shaking hand. The elf-horse reared and snorted. The foremost of the black horses had almost set foot upon the shore.</t>
+  </si>
+  <si>
+    <t>(Frodo unconscious in Rivendell.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERROR, this should be 18 Oct: ‘You are forgetting not only your family history, but all you ever knew about trolls,’ said Strider. ‘It is broad daylight with a bright sun, and yet you come back trying to scare me with a tale of live trolls waiting for us in this glade! In any case you might have noticed that one of them has an old bird’s nest behind his ear. That would be a most unusual ornament for a live troll!’ </t>
+  </si>
+  <si>
+    <t>They cast themselves down in the heather a few yards from the road-side, and fell asleep immediately. They seemed hardly to have closed their eyes when Glorfindel, who had set himself to watch while they slept, awoke them again. The sun had now climbed far into the morning, and the clouds and mists of the night were gone.</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>But however anxious their guides might be, it was plain that the hobbits could go no further that night. They were stumbling along dizzy with weariness, and unable to think of anything but their feet and legs. Frodo’s pain had redoubled, and during the day things about him faded to shadows of ghostly grey. He almost welcomed the coming of night, for then the world seemed less pale and empty.</t>
   </si>
 </sst>
 </file>
@@ -1033,8 +1051,8 @@
   <dimension ref="A1:K281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1403,7 +1421,7 @@
         <v>127</v>
       </c>
       <c r="H20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1420,7 +1438,7 @@
         <v>127</v>
       </c>
       <c r="H21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1437,7 +1455,7 @@
         <v>127</v>
       </c>
       <c r="H22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1451,10 +1469,10 @@
         <v>20</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1544,10 +1562,10 @@
         <v>133</v>
       </c>
       <c r="G29" t="s">
-        <v>142</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>144</v>
+        <v>155</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1563,12 +1581,26 @@
       <c r="E30" t="s">
         <v>20</v>
       </c>
+      <c r="G30" t="s">
+        <v>142</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I30" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="31" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>408634</v>
       </c>
-      <c r="H31" s="4"/>
+      <c r="G31" t="s">
+        <v>150</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="32" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
@@ -1584,7 +1616,10 @@
         <v>20</v>
       </c>
       <c r="G32" t="s">
-        <v>145</v>
+        <v>144</v>
+      </c>
+      <c r="H32" t="s">
+        <v>151</v>
       </c>
       <c r="I32" t="s">
         <v>125</v>
@@ -1594,15 +1629,24 @@
       <c r="B33" s="1">
         <v>408636</v>
       </c>
+      <c r="H33" s="4" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="34" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>408637</v>
       </c>
+      <c r="H34" s="4" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="35" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>408638</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/lotr_tale_years/tale_years.xlsx
+++ b/lotr_tale_years/tale_years.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\-=Cloud=-\Sync\git\git_johnfial_johnfial\johnfial.github.io\lotr_tale_years\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93383483-801B-4CBD-ADEE-F279DEECF056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22CE4049-519A-4603-AB66-1D582F837289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="189">
   <si>
     <t>Date</t>
   </si>
@@ -664,6 +664,115 @@
   <si>
     <t>But however anxious their guides might be, it was plain that the hobbits could go no further that night. They were stumbling along dizzy with weariness, and unable to think of anything but their feet and legs. Frodo’s pain had redoubled, and during the day things about him faded to shadows of ghostly grey. He almost welcomed the coming of night, for then the world seemed less pale and empty.</t>
   </si>
+  <si>
+    <t>25 Oct 3018 -- ... 'but I learned that you had been in Bree the night before, and had gone off that morning with Strider. 
+‘“Strider!” I cried, shouting for joy. 
+‘“Yes, sir, I am afraid so, sir,” said Butterbur, mistaking me. “He got at them, in spite of all that I could do, ...
+... and they took up with him. They behaved very queer all the time they were here: wilful, you might say.” 
+‘“Ass! Fool! Thrice worthy and beloved Barliman!” said I. “It’s the best news I have had since Midsummer; it’s worth a gold piece at the least. May your beer ...
+...be laid under an enchantment of surpassing excellence for seven years!” said I. “Now I can take a night’s rest, the first since I have forgotten when.”</t>
+  </si>
+  <si>
+    <t>25 Oct 3018 -- (The Council of Elrond) ‘The road must be trod, but it will be very hard. And neither strength nor wisdom will carry us far upon it. This quest may be attempted by the weak with as much hope as the strong. Yet such is oft the course of deeds that move...
+... the wheels of the world: small hands do them because they must, while the eyes of the great are elsewhere.’</t>
+  </si>
+  <si>
+    <t>25 Oct 3018 -- (The Council of Elrond) ‘Then,’ said Erestor, ‘there are but two courses, as Glorfindel already has declared: to hide the Ring for ever; or to unmake it. But both are beyond our power. Who will read this riddle for us?’ ‘None here can do so,’ ...
+...said Elrond gravely. ‘At least none can foretell what will come to pass, if we take this road or that. But it seems to me now clear which is the road that we must take. The westward road seems easiest. Therefore it must be shunned. It will be watched. Too often the Elves...
+... have fled that way. Now at this last we must take a hard road, a road unforeseen. There lies our hope, if hope it be. To walk into peril – to Mordor. We must send the Ring to the Fire.’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 Oct 3018 -- (p.m. after 'The Council of Elrond') For a while the hobbits continued to talk and think of the past journey and of the perils that lay ahead; but such was the virtue of the land of Rivendell that soon all fear and anxiety was lifted from their minds. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">~Oct 3018 -- The future, good or ill, was not forgotten, but ceased to have any power over the present. Health and hope grew strong in them, and they were content with each good day as it came, taking pleasure in every meal, and in every word and song. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">~Oct 3018 -- So the days slipped away, as each morning dawned bright and fair, and each evening followed cool and clear. But autumn was waning fast; slowly the golden light faded to pale silver, and the lingering leaves fell from the naked trees. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">~Nov 3018 -- A wind began to blow chill from the Misty Mountains to the east. The Hunter’s Moon waxed round in the night sky, and put to flight all the lesser stars. </t>
+  </si>
+  <si>
+    <t>~Nov 3018 -- But low in the South one star shone red. Every night, as the Moon waned again, it shone brighter and brighter. Frodo could see it from his window, deep in the heavens, burning like a watchful eye that glared above the trees on the brink of the valley.</t>
+  </si>
+  <si>
+    <t>~Dec 3018 -- The hobbits had been nearly two months in the house of Elrond, and November had gone by with the last shreds of autumn, and December was passing, when the scouts began to return.</t>
+  </si>
+  <si>
+    <t>Rough</t>
+  </si>
+  <si>
+    <t>WORKING</t>
+  </si>
+  <si>
+    <t>POSTED</t>
+  </si>
+  <si>
+    <t>‘But that will leave no place for us!’ cried Pippin in dismay. ‘We don’t want to be left behind. We want to go with Frodo.’ 
+‘That is because you do not understand and cannot imagine what lies ahead,’ said Elrond. 
+‘Neither does Frodo,’ said Gandalf, unexpectedly supporting Pippin. ‘Nor do any of us see clearly. It is true that if these hobbits understood the danger, they would not dare to go. But they would still wish to go, or wish that they dared, and be shamed and unhappy. I think, Elrond, that in this matter it would be well to trust rather to their friendship than to great wisdom. Even if you chose for us an Elf-lord, such as Glorfindel, he could not storm the Dark Tower, nor open the road to the Fire by the power that is in him.’</t>
+  </si>
+  <si>
+    <t>In those last days the hobbits sat together in the evening…</t>
+  </si>
+  <si>
+    <t>On the morning of the last day Frodo was alone with Bilbo, and the old hobbit pulled out from under his bed a wooden box.</t>
+  </si>
+  <si>
+    <t>It was a cold grey day near the end of December.</t>
+  </si>
+  <si>
+    <t>Their purpose was to hold this course west of the Mountains for many miles and days.</t>
+  </si>
+  <si>
+    <t>At that moment Elrond came out with Gandalf, and he called the Company to him. ‘This is my last word,’ he said in a low voice. ‘The Ring-bearer is setting out on the Quest of Mount Doom. On him alone is any charge laid: neither to cast away the Ring, nor to deliver it to any servant of the Enemy nor indeed to let any handle it, save members of the Company and the Council, and only then in gravest need. The others go with him as free companions, to help him on his way. You may tarry, or come back, or turn aside into other paths, as chance allows. The further you go, the less easy will it be to withdraw; yet no oath or bond is laid on you to go further than you will. For you do not yet know the strength of your hearts, and you cannot foresee what each may meet upon the road.’ 
+‘Faithless is he that says farewell when the road darkens,’ said Gimli. 
+‘Maybe,’ said Elrond, ‘but let him not vow to walk in the dark, who has not seen the nightfall.’</t>
+  </si>
+  <si>
+    <t>For many sunless days an icy blast came from the Mountains in the east, and no garment seemed able to keep out its searching fingers.</t>
+  </si>
+  <si>
+    <t>Each day the land looked much the same as it had the day before. Yet steadily the mountains were drawing nearer.</t>
+  </si>
+  <si>
+    <t>They had been a fortnight on the way when the weather changed.</t>
+  </si>
+  <si>
+    <t>Gandalf: 'The land and the weather will be milder now, but perhaps all the more dangerous.’ 
+‘Dangerous or not, a real sunrise is mighty welcome,’ said Frodo, throwing back his hood and letting the morning light fall on his face.</t>
+  </si>
+  <si>
+    <t>The Council of Elrond / The Ring goes South</t>
+  </si>
+  <si>
+    <t>UPDATE YEAR ON TWITTER POSTS!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 The Company reach Hollin. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11,12 Snow on Caradhras. </t>
+  </si>
+  <si>
+    <t>13 Attack by Wolves in the early hours. The Company reaches West-gate of Moria at nightfall. Gollum begins to trail the Ring-bearer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 Night in Hall Twenty-one. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 The Bridge of Khazad-dûm, and fall of Gandalf. The Company reaches Nimrodel late at night. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 The Company comes to Caras Galadhon at evening. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 Gandalf pursues the Balrog to the peak of Zirakzigil. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 He casts down the Balrog, and passes away. His body lies on the peak. </t>
+  </si>
 </sst>
 </file>
 
@@ -672,7 +781,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-809]d\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -716,8 +825,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -734,8 +865,19 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -743,14 +885,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -765,12 +923,21 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="4" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1051,22 +1218,22 @@
   <dimension ref="A1:K281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E112" sqref="E112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="3" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
     <col min="6" max="6" width="6.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
     <col min="8" max="8" width="54.42578125" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1625,7 +1792,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>408636</v>
       </c>
@@ -1633,7 +1800,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>408637</v>
       </c>
@@ -1641,7 +1808,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>408638</v>
       </c>
@@ -1649,7 +1816,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <v>408639</v>
       </c>
@@ -1666,7 +1833,10 @@
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>168</v>
+      </c>
       <c r="B37" s="1">
         <v>408640</v>
       </c>
@@ -1677,1159 +1847,1319 @@
         <v>86</v>
       </c>
       <c r="E37" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <v>408641</v>
       </c>
-    </row>
-    <row r="39" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>408642</v>
       </c>
     </row>
-    <row r="40" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>408643</v>
       </c>
-    </row>
-    <row r="41" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E40" t="s">
+        <v>24</v>
+      </c>
+      <c r="H40" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>408644</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <v>408645</v>
       </c>
     </row>
-    <row r="43" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <v>408646</v>
       </c>
-    </row>
-    <row r="44" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E43" t="s">
+        <v>24</v>
+      </c>
+      <c r="H43" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <v>408647</v>
       </c>
     </row>
-    <row r="45" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <v>408648</v>
       </c>
     </row>
-    <row r="46" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <v>408649</v>
       </c>
-      <c r="E46" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <v>408650</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F47" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <v>408651</v>
       </c>
-      <c r="E48" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <v>408652</v>
       </c>
     </row>
-    <row r="50" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <v>408653</v>
       </c>
-      <c r="E50" t="s">
-        <v>9</v>
-      </c>
-      <c r="F50" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <v>408654</v>
       </c>
-      <c r="E51" t="s">
-        <v>10</v>
-      </c>
-      <c r="F51" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>408655</v>
       </c>
-      <c r="E52" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <v>408656</v>
       </c>
-      <c r="E53" t="s">
-        <v>12</v>
-      </c>
-      <c r="F53" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <v>408657</v>
       </c>
+      <c r="C54" s="3" t="s">
+        <v>166</v>
+      </c>
       <c r="E54" t="s">
-        <v>13</v>
-      </c>
-      <c r="F54" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="H54" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <v>408658</v>
       </c>
-      <c r="E55" t="s">
-        <v>14</v>
-      </c>
-      <c r="F55" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
         <v>408659</v>
       </c>
-      <c r="E56" t="s">
-        <v>15</v>
-      </c>
-      <c r="F56" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
         <v>408660</v>
       </c>
-      <c r="E57" t="s">
-        <v>16</v>
-      </c>
-      <c r="F57" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="1">
         <v>408661</v>
       </c>
-      <c r="E58" t="s">
-        <v>17</v>
-      </c>
-      <c r="F58" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="1">
         <v>408662</v>
       </c>
-      <c r="E59" t="s">
-        <v>18</v>
-      </c>
-      <c r="F59" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="1">
         <v>408663</v>
       </c>
-      <c r="E60" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="1">
         <v>408664</v>
       </c>
-      <c r="E61" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="1">
         <v>408665</v>
       </c>
     </row>
-    <row r="63" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="1">
         <v>408666</v>
       </c>
     </row>
-    <row r="64" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1">
         <v>408667</v>
       </c>
-      <c r="E64" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="1">
         <v>408668</v>
       </c>
     </row>
-    <row r="66" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="1">
         <v>408669</v>
       </c>
-      <c r="E66" t="s">
-        <v>33</v>
-      </c>
-      <c r="F66" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="1">
         <v>408670</v>
       </c>
     </row>
-    <row r="68" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1">
         <v>408671</v>
       </c>
-      <c r="E68" t="s">
-        <v>34</v>
-      </c>
-      <c r="F68" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="1">
         <v>408672</v>
       </c>
-      <c r="E69" t="s">
-        <v>35</v>
-      </c>
-      <c r="F69" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="1">
         <v>408673</v>
       </c>
-      <c r="E70" t="s">
-        <v>36</v>
-      </c>
-      <c r="F70" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
         <v>408674</v>
       </c>
+      <c r="C71" s="3" t="s">
+        <v>166</v>
+      </c>
       <c r="E71" t="s">
-        <v>37</v>
-      </c>
-      <c r="F71" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="H71" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="1">
         <v>408675</v>
       </c>
-      <c r="E72" t="s">
-        <v>38</v>
-      </c>
-      <c r="F72" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="1">
         <v>408676</v>
       </c>
-      <c r="E73" t="s">
-        <v>39</v>
-      </c>
-      <c r="F73" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="1">
         <v>408677</v>
       </c>
-      <c r="E74" t="s">
-        <v>40</v>
-      </c>
-      <c r="F74" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="1">
         <v>408678</v>
       </c>
-      <c r="E75" t="s">
-        <v>41</v>
-      </c>
-      <c r="F75" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="1">
         <v>408679</v>
       </c>
-      <c r="E76" t="s">
-        <v>42</v>
-      </c>
-      <c r="F76" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="1">
         <v>408680</v>
       </c>
-      <c r="E77" t="s">
-        <v>43</v>
-      </c>
-      <c r="F77" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="1">
         <v>408681</v>
       </c>
-      <c r="E78" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="79" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="1">
         <v>408682</v>
       </c>
     </row>
-    <row r="80" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="1">
         <v>408683</v>
       </c>
     </row>
-    <row r="81" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="1">
         <v>408684</v>
       </c>
-      <c r="E81" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="1">
         <v>408685</v>
       </c>
     </row>
-    <row r="83" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="1">
         <v>408686</v>
       </c>
-      <c r="E83" t="s">
-        <v>57</v>
-      </c>
-      <c r="F83" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="84" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="1">
         <v>408687</v>
       </c>
     </row>
-    <row r="85" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="1">
         <v>408688</v>
       </c>
-      <c r="E85" t="s">
-        <v>58</v>
-      </c>
-      <c r="F85" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="86" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="1">
         <v>408689</v>
       </c>
-      <c r="E86" t="s">
-        <v>59</v>
-      </c>
-      <c r="F86" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="87" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="1">
         <v>408690</v>
       </c>
-      <c r="E87" t="s">
-        <v>60</v>
-      </c>
-      <c r="F87" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="88" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="1">
         <v>408691</v>
       </c>
-      <c r="E88" t="s">
-        <v>61</v>
-      </c>
-      <c r="F88" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="89" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="1">
         <v>408692</v>
       </c>
-      <c r="E89" t="s">
-        <v>62</v>
-      </c>
-      <c r="F89" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="90" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="1">
         <v>408693</v>
       </c>
-      <c r="E90" t="s">
-        <v>63</v>
-      </c>
-      <c r="F90" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="91" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="1">
         <v>408694</v>
       </c>
-      <c r="E91" t="s">
-        <v>64</v>
-      </c>
-      <c r="F91" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="92" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="1">
         <v>408695</v>
       </c>
-      <c r="E92" t="s">
-        <v>65</v>
-      </c>
-      <c r="F92" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="93" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="1">
         <v>408696</v>
       </c>
+      <c r="C93" s="3" t="s">
+        <v>133</v>
+      </c>
       <c r="E93" t="s">
-        <v>66</v>
-      </c>
-      <c r="F93" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="94" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="H93" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="1">
         <v>408697</v>
       </c>
+      <c r="C94" s="3" t="s">
+        <v>133</v>
+      </c>
       <c r="E94" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="95" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="1">
         <v>408698</v>
       </c>
-    </row>
-    <row r="96" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E95" t="s">
+        <v>24</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="1">
         <v>408699</v>
       </c>
-    </row>
-    <row r="97" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E96" t="s">
+        <v>24</v>
+      </c>
+      <c r="G96" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="1">
         <v>408700</v>
       </c>
-    </row>
-    <row r="98" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E97" t="s">
+        <v>24</v>
+      </c>
+      <c r="G97" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="1">
         <v>408701</v>
       </c>
-    </row>
-    <row r="99" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E98" t="s">
+        <v>24</v>
+      </c>
+      <c r="G98" t="s">
+        <v>173</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="1">
         <v>408702</v>
       </c>
     </row>
-    <row r="100" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="1">
         <v>408703</v>
       </c>
     </row>
-    <row r="101" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="1">
         <v>408704</v>
       </c>
     </row>
-    <row r="102" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="1">
         <v>408705</v>
       </c>
     </row>
-    <row r="103" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="1">
         <v>408706</v>
       </c>
     </row>
-    <row r="104" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="1">
         <v>408707</v>
       </c>
-    </row>
-    <row r="105" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C104" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E104" t="s">
+        <v>24</v>
+      </c>
+      <c r="G104" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B105" s="1">
         <v>408708</v>
       </c>
-    </row>
-    <row r="106" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="1">
+      <c r="E105" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="F105" s="9"/>
+      <c r="G105" s="9"/>
+      <c r="H105" s="9"/>
+    </row>
+    <row r="106" spans="1:8" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="10">
         <v>408709</v>
       </c>
-    </row>
-    <row r="107" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C106" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G106" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="1">
         <v>408710</v>
       </c>
     </row>
-    <row r="108" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="1">
         <v>408711</v>
       </c>
     </row>
-    <row r="109" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="1">
         <v>408712</v>
       </c>
     </row>
-    <row r="110" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="1">
         <v>408713</v>
       </c>
     </row>
-    <row r="111" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="1">
         <v>408714</v>
       </c>
     </row>
-    <row r="112" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="8" t="s">
+        <v>167</v>
+      </c>
       <c r="B112" s="1">
         <v>408715</v>
       </c>
-    </row>
-    <row r="113" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C112" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D112" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="E112" t="s">
+        <v>24</v>
+      </c>
+      <c r="G112" t="s">
+        <v>177</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="1">
         <v>408716</v>
       </c>
     </row>
-    <row r="114" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="1">
         <v>408717</v>
       </c>
     </row>
-    <row r="115" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="1">
         <v>408718</v>
       </c>
-    </row>
-    <row r="116" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D115" s="13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="1">
         <v>408719</v>
       </c>
     </row>
-    <row r="117" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="1">
         <v>408720</v>
       </c>
-    </row>
-    <row r="118" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D117" s="13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="1">
         <v>408721</v>
       </c>
-    </row>
-    <row r="119" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D118" s="13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="1">
         <v>408722</v>
       </c>
-    </row>
-    <row r="120" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D119" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="1">
         <v>408723</v>
       </c>
     </row>
-    <row r="121" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="1">
         <v>408724</v>
       </c>
-    </row>
-    <row r="122" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D121" s="13" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="1">
         <v>408725</v>
       </c>
     </row>
-    <row r="123" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="1">
         <v>408726</v>
       </c>
     </row>
-    <row r="124" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="1">
         <v>408727</v>
       </c>
     </row>
-    <row r="125" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="1">
         <v>408728</v>
       </c>
     </row>
-    <row r="126" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="1">
         <v>408729</v>
       </c>
     </row>
-    <row r="127" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="1">
         <v>408730</v>
       </c>
-    </row>
-    <row r="128" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D127" s="13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="1">
         <v>408731</v>
       </c>
     </row>
-    <row r="129" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="1">
         <v>408732</v>
       </c>
-    </row>
-    <row r="130" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D129" s="13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="1">
         <v>408733</v>
       </c>
     </row>
-    <row r="131" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="1">
         <v>408734</v>
       </c>
     </row>
-    <row r="132" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="1">
         <v>408735</v>
       </c>
     </row>
-    <row r="133" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="1">
         <v>408736</v>
       </c>
     </row>
-    <row r="134" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="1">
         <v>408737</v>
       </c>
     </row>
-    <row r="135" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="1">
         <v>408738</v>
       </c>
     </row>
-    <row r="136" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="1">
         <v>408739</v>
       </c>
     </row>
-    <row r="137" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="1">
         <v>408740</v>
       </c>
     </row>
-    <row r="138" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="1">
         <v>408741</v>
       </c>
     </row>
-    <row r="139" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="1">
         <v>408742</v>
       </c>
     </row>
-    <row r="140" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="1">
         <v>408743</v>
       </c>
     </row>
-    <row r="141" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="1">
         <v>408744</v>
       </c>
     </row>
-    <row r="142" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="1">
         <v>408745</v>
       </c>
     </row>
-    <row r="143" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="1">
         <v>408746</v>
       </c>
     </row>
-    <row r="144" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="1">
         <v>408747</v>
       </c>
     </row>
-    <row r="145" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="1">
         <v>408748</v>
       </c>
     </row>
-    <row r="146" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="1">
         <v>408749</v>
       </c>
     </row>
-    <row r="147" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="1">
         <v>408750</v>
       </c>
     </row>
-    <row r="148" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="1">
         <v>408751</v>
       </c>
     </row>
-    <row r="149" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="1">
         <v>408752</v>
       </c>
     </row>
-    <row r="150" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="1">
         <v>408753</v>
       </c>
     </row>
-    <row r="151" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="1">
         <v>408754</v>
       </c>
     </row>
-    <row r="152" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="1">
         <v>408755</v>
       </c>
     </row>
-    <row r="153" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="1">
         <v>408756</v>
       </c>
     </row>
-    <row r="154" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="1">
         <v>408757</v>
       </c>
     </row>
-    <row r="155" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="1">
         <v>408758</v>
       </c>
     </row>
-    <row r="156" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="1">
         <v>408759</v>
       </c>
-    </row>
-    <row r="157" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F156" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="1">
         <v>408760</v>
       </c>
     </row>
-    <row r="158" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="1">
         <v>408761</v>
       </c>
-    </row>
-    <row r="159" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F158" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="1">
         <v>408762</v>
       </c>
-    </row>
-    <row r="160" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F159" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="1">
         <v>408763</v>
       </c>
-    </row>
-    <row r="161" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F160" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="161" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="1">
         <v>408764</v>
       </c>
-    </row>
-    <row r="162" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F161" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="162" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="1">
         <v>408765</v>
       </c>
-    </row>
-    <row r="163" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F162" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="163" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="1">
         <v>408766</v>
       </c>
-    </row>
-    <row r="164" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F163" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="164" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="1">
         <v>408767</v>
       </c>
-    </row>
-    <row r="165" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F164" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="165" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="1">
         <v>408768</v>
       </c>
-    </row>
-    <row r="166" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F165" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="166" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="1">
         <v>408769</v>
       </c>
-    </row>
-    <row r="167" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F166" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="167" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="1">
         <v>408770</v>
       </c>
-    </row>
-    <row r="168" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F167" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="168" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="1">
         <v>408771</v>
       </c>
-    </row>
-    <row r="169" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F168" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="169" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="1">
         <v>408772</v>
       </c>
-    </row>
-    <row r="170" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E169" t="s">
+        <v>82</v>
+      </c>
+      <c r="F169" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="170" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="1">
         <v>408773</v>
       </c>
-    </row>
-    <row r="171" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E170" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F170" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="171" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="1">
         <v>408774</v>
       </c>
-    </row>
-    <row r="172" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F171" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="172" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="1">
         <v>408775</v>
       </c>
     </row>
-    <row r="173" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="1">
         <v>408776</v>
       </c>
-    </row>
-    <row r="174" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F173" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="174" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="1">
         <v>408777</v>
       </c>
-    </row>
-    <row r="175" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F174" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="175" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="1">
         <v>408778</v>
       </c>
-    </row>
-    <row r="176" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F175" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="176" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="1">
         <v>408779</v>
       </c>
-    </row>
-    <row r="177" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F176" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="177" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="1">
         <v>408780</v>
       </c>
-    </row>
-    <row r="178" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F177" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="178" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="1">
         <v>408781</v>
       </c>
-    </row>
-    <row r="179" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F178" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="179" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="1">
         <v>408782</v>
       </c>
-    </row>
-    <row r="180" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F179" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="180" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="1">
         <v>408783</v>
       </c>
-    </row>
-    <row r="181" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F180" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="181" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="1">
         <v>408784</v>
       </c>
-    </row>
-    <row r="182" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F181" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="182" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="1">
         <v>408785</v>
       </c>
-    </row>
-    <row r="183" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F182" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="183" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="1">
         <v>408786</v>
       </c>
     </row>
-    <row r="184" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="1">
         <v>408787</v>
       </c>
     </row>
-    <row r="185" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="1">
         <v>408788</v>
       </c>
     </row>
-    <row r="186" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="1">
         <v>408789</v>
       </c>
     </row>
-    <row r="187" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="1">
         <v>408790</v>
       </c>
-    </row>
-    <row r="188" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E187" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="188" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="1">
         <v>408791</v>
       </c>
     </row>
-    <row r="189" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="1">
         <v>408792</v>
       </c>
-    </row>
-    <row r="190" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E189" t="s">
+        <v>33</v>
+      </c>
+      <c r="F189" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="190" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="1">
         <v>408793</v>
       </c>
     </row>
-    <row r="191" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="1">
         <v>408794</v>
       </c>
-    </row>
-    <row r="192" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E191" t="s">
+        <v>34</v>
+      </c>
+      <c r="F191" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="192" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" s="1">
         <v>408795</v>
       </c>
-    </row>
-    <row r="193" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E192" t="s">
+        <v>35</v>
+      </c>
+      <c r="F192" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="193" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="1">
         <v>408796</v>
       </c>
-    </row>
-    <row r="194" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E193" t="s">
+        <v>36</v>
+      </c>
+      <c r="F193" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="194" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="1">
         <v>408797</v>
       </c>
-    </row>
-    <row r="195" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E194" t="s">
+        <v>37</v>
+      </c>
+      <c r="F194" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="195" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="1">
         <v>408798</v>
       </c>
-    </row>
-    <row r="196" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E195" t="s">
+        <v>38</v>
+      </c>
+      <c r="F195" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="196" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="1">
         <v>408799</v>
       </c>
-    </row>
-    <row r="197" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E196" t="s">
+        <v>39</v>
+      </c>
+      <c r="F196" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="197" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="1">
         <v>408800</v>
       </c>
-    </row>
-    <row r="198" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E197" t="s">
+        <v>40</v>
+      </c>
+      <c r="F197" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="198" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="1">
         <v>408801</v>
       </c>
-    </row>
-    <row r="199" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E198" t="s">
+        <v>41</v>
+      </c>
+      <c r="F198" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="199" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="1">
         <v>408802</v>
       </c>
-    </row>
-    <row r="200" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E199" t="s">
+        <v>42</v>
+      </c>
+      <c r="F199" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="200" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="1">
         <v>408803</v>
       </c>
-    </row>
-    <row r="201" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E200" t="s">
+        <v>43</v>
+      </c>
+      <c r="F200" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="201" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="1">
         <v>408804</v>
       </c>
-    </row>
-    <row r="202" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E201" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="202" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="1">
         <v>408805</v>
       </c>
     </row>
-    <row r="203" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="1">
         <v>408806</v>
       </c>
     </row>
-    <row r="204" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="1">
         <v>408807</v>
       </c>
-    </row>
-    <row r="205" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E204" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="205" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="1">
         <v>408808</v>
       </c>
     </row>
-    <row r="206" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="1">
         <v>408809</v>
       </c>
-    </row>
-    <row r="207" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E206" t="s">
+        <v>57</v>
+      </c>
+      <c r="F206" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="207" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="1">
         <v>408810</v>
       </c>
     </row>
-    <row r="208" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="1">
         <v>408811</v>
       </c>
-    </row>
-    <row r="209" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E208" t="s">
+        <v>58</v>
+      </c>
+      <c r="F208" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="209" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="1">
         <v>408812</v>
       </c>
-    </row>
-    <row r="210" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E209" t="s">
+        <v>59</v>
+      </c>
+      <c r="F209" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="210" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="1">
         <v>408813</v>
       </c>
-    </row>
-    <row r="211" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E210" t="s">
+        <v>60</v>
+      </c>
+      <c r="F210" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="211" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="1">
         <v>408814</v>
       </c>
-    </row>
-    <row r="212" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E211" t="s">
+        <v>61</v>
+      </c>
+      <c r="F211" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="212" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="1">
         <v>408815</v>
       </c>
-    </row>
-    <row r="213" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E212" t="s">
+        <v>62</v>
+      </c>
+      <c r="F212" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="213" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="1">
         <v>408816</v>
       </c>
-    </row>
-    <row r="214" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E213" t="s">
+        <v>63</v>
+      </c>
+      <c r="F213" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="214" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="1">
         <v>408817</v>
       </c>
-    </row>
-    <row r="215" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E214" t="s">
+        <v>64</v>
+      </c>
+      <c r="F214" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="215" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="1">
         <v>408818</v>
       </c>
-    </row>
-    <row r="216" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E215" t="s">
+        <v>65</v>
+      </c>
+      <c r="F215" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="216" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B216" s="1">
         <v>408819</v>
       </c>
-    </row>
-    <row r="217" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E216" t="s">
+        <v>66</v>
+      </c>
+      <c r="F216" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="217" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B217" s="1">
         <v>408820</v>
       </c>
-    </row>
-    <row r="218" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E217" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="218" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B218" s="1">
         <v>408821</v>
       </c>
     </row>
-    <row r="219" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B219" s="1">
         <v>408822</v>
       </c>
     </row>
-    <row r="220" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B220" s="1">
         <v>408823</v>
       </c>
     </row>
-    <row r="221" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B221" s="1">
         <v>408824</v>
       </c>
     </row>
-    <row r="222" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="1">
         <v>408825</v>
       </c>
     </row>
-    <row r="223" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="1">
         <v>408826</v>
       </c>
     </row>
-    <row r="224" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="1">
         <v>408827</v>
       </c>
@@ -3121,7 +3451,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E47" r:id="rId1" xr:uid="{10C59C7F-F0EE-4778-B884-2B7CD40EAD2F}"/>
+    <hyperlink ref="E170" r:id="rId1" xr:uid="{10C59C7F-F0EE-4778-B884-2B7CD40EAD2F}"/>
     <hyperlink ref="K1" r:id="rId2" xr:uid="{A508D088-E915-4E49-82F7-E5BC640927E2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lotr_tale_years/tale_years.xlsx
+++ b/lotr_tale_years/tale_years.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\-=Cloud=-\Sync\git\git_johnfial_johnfial\johnfial.github.io\lotr_tale_years\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22CE4049-519A-4603-AB66-1D582F837289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E18F378-F4E5-49E3-BB5D-62D35C9A9790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="13185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1218,8 +1218,8 @@
   <dimension ref="A1:K281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E112" sqref="E112"/>
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H104" sqref="H104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1866,9 +1866,6 @@
       <c r="B38" s="1">
         <v>408641</v>
       </c>
-      <c r="E38" t="s">
-        <v>24</v>
-      </c>
       <c r="H38" s="4"/>
     </row>
     <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2288,6 +2285,9 @@
         <v>24</v>
       </c>
       <c r="G104" t="s">
+        <v>175</v>
+      </c>
+      <c r="H104" t="s">
         <v>175</v>
       </c>
     </row>
